--- a/Lab 09 - Aquation/arrhenius_data_template.xlsx
+++ b/Lab 09 - Aquation/arrhenius_data_template.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerrychen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/samihat_rahman_mail_utoronto_ca/Documents/Desktop/Teaching/2024-25 Summer CTFP/Experiment 9 - Kinetics of Aquation/Empty Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195443E4-087A-384B-B13F-2E4C63C32A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC1048B8519A49685ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A75E2F9-6B7E-4D68-83AE-D78C14AA67FA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="3915" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,8 +37,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -76,9 +74,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,10 +98,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,75 +363,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>303</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7.2999999999999999E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>308</v>
-      </c>
-      <c r="B3">
-        <v>1.55E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>313</v>
-      </c>
-      <c r="B4">
-        <v>3.0499999999999999E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>318</v>
-      </c>
-      <c r="B5">
-        <v>5.9100000000000005E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>323</v>
-      </c>
-      <c r="B6">
-        <v>1.2099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>333</v>
-      </c>
-      <c r="B7">
-        <v>3.9300000000000003E-3</v>
-      </c>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="9+V31hjBJpeTv4wuPuK780b6VUMga4E5RO7fV+cBJhL6v5/pNUepoS1T7shl+oxkGcAmHNKg80IzFqiJunPFRg==" saltValue="GJB5B7NUqsNBbNEiMddHOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>